--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 18 a 21h Erros teste.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 18 a 21h Erros teste.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9765158044741391</v>
+        <v>1.636084181705106</v>
       </c>
       <c r="C11" t="n">
-        <v>2.663529702461128</v>
+        <v>4.781086647783146</v>
       </c>
       <c r="D11" t="n">
-        <v>7.427335911871197</v>
+        <v>14.32698138466401</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1240795501294861</v>
+        <v>1.16106392647701</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3986040525364153</v>
+        <v>3.544706210042491</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5882946845226356</v>
+        <v>4.928831622093819</v>
       </c>
     </row>
     <row r="13">

--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 18 a 21h Erros teste.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 18 a 21h Erros teste.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.636084181705106</v>
+        <v>1.645988051334251</v>
       </c>
       <c r="C11" t="n">
-        <v>4.781086647783146</v>
+        <v>4.78548165171042</v>
       </c>
       <c r="D11" t="n">
-        <v>14.32698138466401</v>
+        <v>14.05314743774781</v>
       </c>
     </row>
     <row r="12">
